--- a/ Wangxiaolei123456/evidence.xlsx
+++ b/ Wangxiaolei123456/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="13920" tabRatio="500"/>
+    <workbookView windowWidth="28000" windowHeight="12940" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>TeamName</t>
   </si>
@@ -94,34 +94,61 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>4335AEFDC039B26392754DB4343DEEB9D493B26CD4E9CFF6D24185459972E2B2</t>
+  </si>
+  <si>
+    <t>animal</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>E11F6911804D65A63792B578DD79632DA58832D13C6DF445D5B79F6CDD0D6E8D</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>8D3F0C7A130CC563BB3E083B7B88E10FD9A9D8AAEA3A9D1191A6C7B5712EE761</t>
+  </si>
+  <si>
+    <t>cat</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>CF3F858874E8DF9320371A8EFAF5F4582F95645015A9CFF9E6E2A8DFC03361FD</t>
+  </si>
+  <si>
+    <t>juno1ks4zsx82xyt5khlr5374tpgn8ntscn765fht4x0nal4nvffrst6qw359ek</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>4E9E42804DCE107A8BF4A4DD051831CE71F7B70DAACD30F6FA1400977393CA5D</t>
+  </si>
+  <si>
+    <t>ibc/43D652F5D7DCE043AB039963650E7D6CF2007C938607AB886DD1737D6B0C4B5D</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>EF040B21BDC256A4D3B9230DEDB4E8542A031F1F8E4AA20F5D3C62F261076D84</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>B442E5A46754459DCF08ADCD3148013074D773DA4375D9318D9E4A2BE0BB1EDE</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -144,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -183,29 +210,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -220,18 +240,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,15 +270,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,22 +287,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,22 +323,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +374,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,19 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,49 +518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,91 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +596,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,7 +646,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,189 +680,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1198,11 +1225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1277,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1300,10 +1327,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1337,10 +1364,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1374,10 +1401,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1411,10 +1438,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1443,25 +1470,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1490,25 +1517,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1537,25 +1564,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1584,25 +1611,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1631,25 +1658,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1678,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1707,12 +1734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1744,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1762,25 +1789,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1809,25 +1836,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1855,12 +1882,12 @@
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1891,12 +1918,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1927,12 +1954,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1963,12 +1990,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1982,15 +2009,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -2009,13 +2036,24 @@
     </row>
     <row r="2" ht="13.2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2026,12 +2064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2051,21 +2089,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2076,12 +2114,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2101,21 +2139,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2126,12 +2164,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2151,21 +2189,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2176,12 +2214,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2203,21 +2241,21 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2251,10 +2289,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2288,10 +2326,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ Wangxiaolei123456/evidence.xlsx
+++ b/ Wangxiaolei123456/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12940" tabRatio="500" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="15240" tabRatio="500" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>TeamName</t>
   </si>
@@ -145,19 +145,244 @@
     <t>B442E5A46754459DCF08ADCD3148013074D773DA4375D9318D9E4A2BE0BB1EDE</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>72CD3D93338842098F6E4D86ED6C4442F21CB301847536E400FAFF560AB44FA0</t>
+  </si>
+  <si>
+    <t>doga1</t>
+  </si>
+  <si>
+    <t>BD30212D2CA410BA303B067D405259ECDEADB23231BADF22427064476871587F</t>
+  </si>
+  <si>
+    <t>85A1E6888C96B9633DF69FC2D9F90487CF77F38BBE3CAEF9968EB16CFF981EB1</t>
+  </si>
+  <si>
+    <t>2EDAFA6C385CB5F9658DBE4408A4DAA7C23514A3FC643C70EAE1F072737CA454</t>
+  </si>
+  <si>
+    <t>doga2</t>
+  </si>
+  <si>
+    <t>61F9209FC2C9AA46CFA660BD18DF80F2DC9797797C00E1695107ABDED7ADB314</t>
+  </si>
+  <si>
+    <t>A0E2B4FE385043D408A5EBDD85D25D118FE6130A83D5D982235188E78AD9CFA4</t>
+  </si>
+  <si>
+    <t>B9E0F215D81D3C264977056A72C7AF2C72212180837269547DC45385574743FF</t>
+  </si>
+  <si>
+    <t>doga3</t>
+  </si>
+  <si>
+    <t>9B5E300EA752016D63ABF7DF2551EF32396AA4BAA8FBF69C0C4552B4D1471957</t>
+  </si>
+  <si>
+    <t>F7C9BE38A5DDC8D6C9B4CFF718E695BC1D2132AE843FC95E2B97225BA2D16778</t>
+  </si>
+  <si>
+    <t>4B5640406DEA5D2CFD1FC49D7ADA492878E69B3D6BC1F2833057B65AA861B3E1</t>
+  </si>
+  <si>
+    <t>66DF69A2D0369A95A41AD3A232EAB9B572787DB205CA3482CB4FF1318803D202</t>
+  </si>
+  <si>
+    <t>doga4</t>
+  </si>
+  <si>
+    <t>3348E8EC6C3F0D2EE7EC546AD27F44BD52DD8014699F7690B541B83FCBD9EC01</t>
+  </si>
+  <si>
+    <t>41E1DE5197F80727B7F5B1EB3B3BAECB05AEB9C3DEF06234FA1B92161C37D5DD</t>
+  </si>
+  <si>
+    <t>02488EEA3A4896A4940F379D33E7CC705D5F1A3CD9AD7B607C42009DEFB6FD3D</t>
+  </si>
+  <si>
+    <t>38D7595075EFCB533DF994A530E907E0B2E2038088369EC50978B9C869305433</t>
+  </si>
+  <si>
+    <t>doga5</t>
+  </si>
+  <si>
+    <t>468BA1B01BCC35A039D5022F73EEE0BF6DB952CC8BE1F6063FC16B419C61A06A</t>
+  </si>
+  <si>
+    <t>FE3A1CB340499DFE05E2A8BDCC4436F8AE84FDC2EF6542E0765E4B71C1035FD7</t>
+  </si>
+  <si>
+    <t>D5A5ADFEFF3A5A3B9C7F25FB378641B9A3E42F97AB3218F0D4A5E7CBA424415A</t>
+  </si>
+  <si>
+    <t>EA83946B886DC1F9079032A4D9F8942363EEBBDA2B6680F3C540C6F8822E48C8</t>
+  </si>
+  <si>
+    <t>F6F3A183FD32290E10E428C5AC7326399C3A0EC801C9C82D7E2E2776B01D2809</t>
+  </si>
+  <si>
+    <t>EC61D0C2F70E5E8F0260C6230F069BEE88B2FB4DF48CAB2CE85CD3C5FCB65187</t>
+  </si>
+  <si>
+    <t>doga6</t>
+  </si>
+  <si>
+    <t>0206310B0DE56EE04980BA5551384B13D2F1B2AD61D79755DFEEB57FC3304E9F</t>
+  </si>
+  <si>
+    <t>46616B40528099B5610E603268574333F52DC3C12788AC635E9EDA8A078DAECF</t>
+  </si>
+  <si>
+    <t>D167AD13F54D8010A9BB68A435D5DC05DC38192CB4BDE631CC8944A1D8C19368</t>
+  </si>
+  <si>
+    <t>86B1B63C4C0E80808DBC6414E5F19B32D8567DAAFEA3DAD64A29CC8039CF3E46</t>
+  </si>
+  <si>
+    <t>0BDAF9BE62BEC47981D03D1808609E6208CDCFE4BDE648B1AF3EC37F2F53EAC4</t>
+  </si>
+  <si>
+    <t>1C9A0C3764A4603F44D2CCC208BD11C4F43BBC5B7904CF6E1BCA950851F5C9CE</t>
+  </si>
+  <si>
+    <t>dogb1</t>
+  </si>
+  <si>
+    <t>C2D424B57432C4CA4DD52444E833EA6F6D4529E92538959B9086F086A458D0E3</t>
+  </si>
+  <si>
+    <t>CFF70CF1BE5809D1AC6E0ABB9E89411D54349826EE46416C18EF20B490C35370</t>
+  </si>
+  <si>
+    <t>9B2A4300B3F6EDCFC3751F52E97E5A08C6BB5F12896E76D8D46BF73C4B818CA8</t>
+  </si>
+  <si>
+    <t>F7DD42D919E7974A695D1437C8D08D4B205805D8AE802EC620A88CAC29D094C0</t>
+  </si>
+  <si>
+    <t>dogb2</t>
+  </si>
+  <si>
+    <t>1B7CCB8EFEF54F0B3238DDC15BD43BED3BA101089A2D818352F1CD56E013048A</t>
+  </si>
+  <si>
+    <t>5674E6DE97BE8A6F4C208B3BD1D8665A30707F0C6A0A734F61E182AE081B940C</t>
+  </si>
+  <si>
+    <t>1D8C729930276F235A1E8B60A312C18CCCDBA07D2E5D490CD79FB3B72522F412</t>
+  </si>
+  <si>
+    <t>725C30A48B2B4627E6BA912F6D4F0CA7D167634CA0185358EBC5A4FC7199277F</t>
+  </si>
+  <si>
+    <t>dogb3</t>
+  </si>
+  <si>
+    <t>F1A7563FAF6CCA5B8B0F98B0586199C1B253669AFC589F18168D326B11B3469F</t>
+  </si>
+  <si>
+    <t>FF16F4E8DCC7B982F5FA654C4E2005F370E40F36E176F0A0B773C58BF7CE57EE</t>
+  </si>
+  <si>
+    <t>7BEED3B673CB98E9A7564BABD18B21DE58D92DA97C9583951B173376BBBD4291</t>
+  </si>
+  <si>
+    <t>F18C10C1DD3A68ED8EFB5C346C431843A28502632F261C9C62F104569D608F42</t>
+  </si>
+  <si>
+    <t>dogb4</t>
+  </si>
+  <si>
+    <t>48B2BC6598F32B7F2DF0F6478793E8294AA94D2D406181459A899F39BDA8CCF7</t>
+  </si>
+  <si>
+    <t>A29B1A462EFE49933E40FC0743C7BB092F004DADEF048714886A6E21006F357E</t>
+  </si>
+  <si>
+    <t>E6B9B384CF005DFBDCECA78F8D9E63B909383DF42E4AB476EC897AB479E0C32D</t>
+  </si>
+  <si>
+    <t>8FBCB895136FAB5EB833628336120637AB33EF1E0393C8EB70CB021CF4AD4B67</t>
+  </si>
+  <si>
+    <t>dogc1</t>
+  </si>
+  <si>
+    <t>76ADD2AB671A7031443B47E795A7F75917FBE4CCF5D1302FD4465CD97EF5167E</t>
+  </si>
+  <si>
+    <t>E63A83D83E1DF94A2E9AB9A7B856A974127535B682D83B7C87FC5284A3013ACA</t>
+  </si>
+  <si>
+    <t>0F74003FD653DF9ADEBAE7D31D1B88FC1174369D37F5095CBC55E4AA61DDF8E3</t>
+  </si>
+  <si>
+    <t>162ACC49C3498856BBB5A082411429F15BED7D094ED0FAE2A1A3C8E3E72C76AB</t>
+  </si>
+  <si>
+    <t>dogc2</t>
+  </si>
+  <si>
+    <t>6FD953BA0BC445E1C55DAD8F04EBEE77FBC83DAB272AAD4451675A85D3CA1F51</t>
+  </si>
+  <si>
+    <t>6D1F8B4788C4DAC64B3C7CCEE7DE021FCDF37DBF5AB69F5D6ED5510D7CA33133</t>
+  </si>
+  <si>
+    <t>D8FA72BE06B2DA85738F4BBCCC20F745C3063BB2D5FB09E98F9CB46F560BA48C</t>
+  </si>
+  <si>
+    <t>31B63512F52E373BAB7659E8A014F202659CD2F3B260EC6DB20FBA296C4A0FE7</t>
+  </si>
+  <si>
+    <t>dogc3</t>
+  </si>
+  <si>
+    <t>41DA103B4659C41D9B87723A6A8DC023E08685E9BDCC3D5BE0F24878BD0F3091</t>
+  </si>
+  <si>
+    <t>07DEB2C60CA4621394450A699D058001A7AC847AC9CF8DB0274882D590243BD9</t>
+  </si>
+  <si>
+    <t>5B98F7A517A175C5618D082AF7A2FB8F991239FF0B6948B3A6A257B7ECF0A923</t>
+  </si>
+  <si>
+    <t>B641D40DE3B345DF7851B7DA3845C5B1FC51E8E4EBFB696D91ED1FC675496E52</t>
+  </si>
+  <si>
+    <t>3D09FFC630397774B3E95A94310EBD2ED2FC18E3E07670C8A9A5DC6378F684C5</t>
+  </si>
+  <si>
+    <t>50CBC7FE879D35C402F37B10954DDD9DE101759F356B3E2CD50A0AEF62DD86B2</t>
+  </si>
+  <si>
+    <t>dogc4</t>
+  </si>
+  <si>
+    <t>84D2D93C0FAF18B5B782EF991BE641531433E7EA7C8DE4C908F4BE7E5A8F1A41</t>
+  </si>
+  <si>
+    <t>8C1FCF1E0BEB0DC656B81BD4956B82DAC02AC1C167C9D4C1B593422765DCEA12</t>
+  </si>
+  <si>
+    <t>586A07F309C284226F273AE24B7997A74E89CD87FB73A0D2B9301980E9146340</t>
+  </si>
+  <si>
+    <t>9F1861CE8FBB5FBC87308F17BC70B5A79AF1A91169589BAAB0F6E235586595D1</t>
+  </si>
+  <si>
+    <t>E5E63C5654060891D18E85A221C1F4C1D9EA2594B83D0BF8D01DDC90281D1C3B</t>
+  </si>
+  <si>
+    <t>4CC7A44FFBD0089CB476098986634E6E54DCDAC5CD348B50EE612BC16E30056D</t>
+  </si>
+  <si>
+    <t>683A0214250F0D900E92C14DA3D4F0D18326758250718D259E4DB7E5D1BBABB6</t>
+  </si>
+  <si>
+    <t>ACD42A16029D8BF7B24D4E4C727103B0BB1A4A7F7DAF56128737E25A57C629CF</t>
+  </si>
+  <si>
+    <t>F94C4D9C383A99E000F030F64FDA11EA8A09215677A25E16E152CC95FB8F397D</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -172,9 +397,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -216,8 +441,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -231,9 +471,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,21 +504,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,9 +518,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +535,29 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,59 +572,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,6 +599,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,19 +629,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,151 +749,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,41 +817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,6 +837,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,148 +879,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1230,7 +1455,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1306,15 +1531,15 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="86.6071428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1327,10 +1552,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1343,15 +1592,15 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="96.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1364,10 +1613,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1380,15 +1653,15 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="92.5535714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1401,10 +1674,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" ht="13.2" spans="1:2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1417,15 +1730,15 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="92.1071428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1438,10 +1751,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="13.2" spans="1:2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1454,15 +1807,15 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="90.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1475,20 +1828,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1501,15 +1868,15 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="79.0178571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1522,20 +1889,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1548,15 +1929,15 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="92.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1569,20 +1950,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>80</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1595,15 +1990,15 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.8482142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1616,20 +2011,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1642,15 +2051,15 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="78.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1663,20 +2072,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1689,15 +2112,15 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="87.7946428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1710,20 +2133,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1773,15 +2210,15 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="93.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1794,20 +2231,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1820,15 +2287,15 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="84.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -1841,20 +2308,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1870,10 +2367,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5535714285714" defaultRowHeight="12" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="82.2946428571429" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1882,12 +2382,12 @@
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1905,11 +2405,14 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5535714285714" defaultRowHeight="12" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="88.3928571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1918,12 +2421,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1954,12 +2457,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1990,12 +2493,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2721,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2268,15 +2771,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="84.3660714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -2292,6 +2795,22 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2305,15 +2824,15 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="81.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -2326,10 +2845,26 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ Wangxiaolei123456/evidence.xlsx
+++ b/ Wangxiaolei123456/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="15240" tabRatio="500" firstSheet="15" activeTab="22"/>
+    <workbookView windowWidth="29820" windowHeight="12940" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>TeamName</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>EF040B21BDC256A4D3B9230DEDB4E8542A031F1F8E4AA20F5D3C62F261076D84</t>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
   </si>
   <si>
     <t>B442E5A46754459DCF08ADCD3148013074D773DA4375D9318D9E4A2BE0BB1EDE</t>
@@ -396,9 +393,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -441,38 +438,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -487,16 +454,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,48 +492,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,6 +514,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -605,25 +602,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +704,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,127 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,34 +814,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -861,6 +845,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,168 +896,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,11 +1050,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1496,25 +1496,25 @@
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1552,34 +1552,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1613,34 +1613,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1674,50 +1674,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1751,50 +1751,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1828,34 +1828,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1889,34 +1889,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1950,34 +1950,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2011,34 +2011,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2072,34 +2072,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2133,34 +2133,34 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2231,50 +2231,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2308,50 +2308,50 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2382,12 +2382,12 @@
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2405,7 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -2421,12 +2421,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2457,12 +2457,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2493,12 +2493,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2672,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2705,8 +2705,8 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2721,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="2" ht="13.2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2792,26 +2792,26 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2845,26 +2845,26 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ Wangxiaolei123456/evidence.xlsx
+++ b/ Wangxiaolei123456/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="12940" tabRatio="500" activeTab="6"/>
+    <workbookView windowWidth="29820" windowHeight="15240" tabRatio="1000" firstSheet="2" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TeamName</t>
   </si>
@@ -142,123 +143,66 @@
     <t>B442E5A46754459DCF08ADCD3148013074D773DA4375D9318D9E4A2BE0BB1EDE</t>
   </si>
   <si>
-    <t>72CD3D93338842098F6E4D86ED6C4442F21CB301847536E400FAFF560AB44FA0</t>
+    <t>ibc/7284F9105E4F0C1724093A189BA9ECF44775FCACC45106774C3045BDD3D08324</t>
   </si>
   <si>
     <t>doga1</t>
   </si>
   <si>
-    <t>BD30212D2CA410BA303B067D405259ECDEADB23231BADF22427064476871587F</t>
-  </si>
-  <si>
-    <t>85A1E6888C96B9633DF69FC2D9F90487CF77F38BBE3CAEF9968EB16CFF981EB1</t>
-  </si>
-  <si>
-    <t>2EDAFA6C385CB5F9658DBE4408A4DAA7C23514A3FC643C70EAE1F072737CA454</t>
+    <t>ibc/0954C9042D990682137ABC8E372DD4050BE749F17AD31E48F18A0638C460A253</t>
   </si>
   <si>
     <t>doga2</t>
   </si>
   <si>
-    <t>61F9209FC2C9AA46CFA660BD18DF80F2DC9797797C00E1695107ABDED7ADB314</t>
-  </si>
-  <si>
-    <t>A0E2B4FE385043D408A5EBDD85D25D118FE6130A83D5D982235188E78AD9CFA4</t>
-  </si>
-  <si>
-    <t>B9E0F215D81D3C264977056A72C7AF2C72212180837269547DC45385574743FF</t>
+    <t>ibc/9E5C16E72E63769D70BF2EBE1FDB92EFEA4B051042654F310ED087F2E85154CE</t>
   </si>
   <si>
     <t>doga3</t>
   </si>
   <si>
-    <t>9B5E300EA752016D63ABF7DF2551EF32396AA4BAA8FBF69C0C4552B4D1471957</t>
-  </si>
-  <si>
-    <t>F7C9BE38A5DDC8D6C9B4CFF718E695BC1D2132AE843FC95E2B97225BA2D16778</t>
-  </si>
-  <si>
-    <t>4B5640406DEA5D2CFD1FC49D7ADA492878E69B3D6BC1F2833057B65AA861B3E1</t>
-  </si>
-  <si>
-    <t>66DF69A2D0369A95A41AD3A232EAB9B572787DB205CA3482CB4FF1318803D202</t>
+    <t>ibc/EB0E622AFEAC2F4D80D13EB063E92B8642BA3417E537B7A75037DF9410CE88BE</t>
   </si>
   <si>
     <t>doga4</t>
   </si>
   <si>
-    <t>3348E8EC6C3F0D2EE7EC546AD27F44BD52DD8014699F7690B541B83FCBD9EC01</t>
-  </si>
-  <si>
-    <t>41E1DE5197F80727B7F5B1EB3B3BAECB05AEB9C3DEF06234FA1B92161C37D5DD</t>
-  </si>
-  <si>
-    <t>02488EEA3A4896A4940F379D33E7CC705D5F1A3CD9AD7B607C42009DEFB6FD3D</t>
-  </si>
-  <si>
-    <t>38D7595075EFCB533DF994A530E907E0B2E2038088369EC50978B9C869305433</t>
+    <t>ibc/9876080DFDF0950816C0A701759BBFC567684CB797FAE7D18CD34FA72132F61A</t>
   </si>
   <si>
     <t>doga5</t>
   </si>
   <si>
-    <t>468BA1B01BCC35A039D5022F73EEE0BF6DB952CC8BE1F6063FC16B419C61A06A</t>
-  </si>
-  <si>
-    <t>FE3A1CB340499DFE05E2A8BDCC4436F8AE84FDC2EF6542E0765E4B71C1035FD7</t>
-  </si>
-  <si>
-    <t>D5A5ADFEFF3A5A3B9C7F25FB378641B9A3E42F97AB3218F0D4A5E7CBA424415A</t>
-  </si>
-  <si>
-    <t>EA83946B886DC1F9079032A4D9F8942363EEBBDA2B6680F3C540C6F8822E48C8</t>
-  </si>
-  <si>
-    <t>F6F3A183FD32290E10E428C5AC7326399C3A0EC801C9C82D7E2E2776B01D2809</t>
-  </si>
-  <si>
-    <t>EC61D0C2F70E5E8F0260C6230F069BEE88B2FB4DF48CAB2CE85CD3C5FCB65187</t>
+    <t>ibc/46FD1293B07E18596D68C4E701F29023A50C6328AFBDD8A9C05B581AC9E33C62</t>
   </si>
   <si>
     <t>doga6</t>
   </si>
   <si>
-    <t>0206310B0DE56EE04980BA5551384B13D2F1B2AD61D79755DFEEB57FC3304E9F</t>
-  </si>
-  <si>
-    <t>46616B40528099B5610E603268574333F52DC3C12788AC635E9EDA8A078DAECF</t>
-  </si>
-  <si>
-    <t>D167AD13F54D8010A9BB68A435D5DC05DC38192CB4BDE631CC8944A1D8C19368</t>
-  </si>
-  <si>
-    <t>86B1B63C4C0E80808DBC6414E5F19B32D8567DAAFEA3DAD64A29CC8039CF3E46</t>
-  </si>
-  <si>
-    <t>0BDAF9BE62BEC47981D03D1808609E6208CDCFE4BDE648B1AF3EC37F2F53EAC4</t>
-  </si>
-  <si>
     <t>1C9A0C3764A4603F44D2CCC208BD11C4F43BBC5B7904CF6E1BCA950851F5C9CE</t>
   </si>
   <si>
-    <t>dogb1</t>
+    <t>gon-irishub-1</t>
   </si>
   <si>
     <t>C2D424B57432C4CA4DD52444E833EA6F6D4529E92538959B9086F086A458D0E3</t>
   </si>
   <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
     <t>CFF70CF1BE5809D1AC6E0ABB9E89411D54349826EE46416C18EF20B490C35370</t>
   </si>
   <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
     <t>9B2A4300B3F6EDCFC3751F52E97E5A08C6BB5F12896E76D8D46BF73C4B818CA8</t>
   </si>
   <si>
     <t>F7DD42D919E7974A695D1437C8D08D4B205805D8AE802EC620A88CAC29D094C0</t>
   </si>
   <si>
-    <t>dogb2</t>
-  </si>
-  <si>
     <t>1B7CCB8EFEF54F0B3238DDC15BD43BED3BA101089A2D818352F1CD56E013048A</t>
   </si>
   <si>
@@ -271,9 +215,6 @@
     <t>725C30A48B2B4627E6BA912F6D4F0CA7D167634CA0185358EBC5A4FC7199277F</t>
   </si>
   <si>
-    <t>dogb3</t>
-  </si>
-  <si>
     <t>F1A7563FAF6CCA5B8B0F98B0586199C1B253669AFC589F18168D326B11B3469F</t>
   </si>
   <si>
@@ -286,9 +227,6 @@
     <t>F18C10C1DD3A68ED8EFB5C346C431843A28502632F261C9C62F104569D608F42</t>
   </si>
   <si>
-    <t>dogb4</t>
-  </si>
-  <si>
     <t>48B2BC6598F32B7F2DF0F6478793E8294AA94D2D406181459A899F39BDA8CCF7</t>
   </si>
   <si>
@@ -301,9 +239,6 @@
     <t>8FBCB895136FAB5EB833628336120637AB33EF1E0393C8EB70CB021CF4AD4B67</t>
   </si>
   <si>
-    <t>dogc1</t>
-  </si>
-  <si>
     <t>76ADD2AB671A7031443B47E795A7F75917FBE4CCF5D1302FD4465CD97EF5167E</t>
   </si>
   <si>
@@ -316,9 +251,6 @@
     <t>162ACC49C3498856BBB5A082411429F15BED7D094ED0FAE2A1A3C8E3E72C76AB</t>
   </si>
   <si>
-    <t>dogc2</t>
-  </si>
-  <si>
     <t>6FD953BA0BC445E1C55DAD8F04EBEE77FBC83DAB272AAD4451675A85D3CA1F51</t>
   </si>
   <si>
@@ -331,9 +263,6 @@
     <t>31B63512F52E373BAB7659E8A014F202659CD2F3B260EC6DB20FBA296C4A0FE7</t>
   </si>
   <si>
-    <t>dogc3</t>
-  </si>
-  <si>
     <t>41DA103B4659C41D9B87723A6A8DC023E08685E9BDCC3D5BE0F24878BD0F3091</t>
   </si>
   <si>
@@ -352,9 +281,6 @@
     <t>50CBC7FE879D35C402F37B10954DDD9DE101759F356B3E2CD50A0AEF62DD86B2</t>
   </si>
   <si>
-    <t>dogc4</t>
-  </si>
-  <si>
     <t>84D2D93C0FAF18B5B782EF991BE641531433E7EA7C8DE4C908F4BE7E5A8F1A41</t>
   </si>
   <si>
@@ -382,10 +308,22 @@
     <t>F94C4D9C383A99E000F030F64FDA11EA8A09215677A25E16E152CC95FB8F397D</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>95331B1F7C8D5283B03EA0025B598AC7B20E0B1172C00E6FD9B735BB149B694C</t>
+  </si>
+  <si>
+    <t>622F339D780563B9F771104DA82476EB91F5FDB1EE95F25E879C27CBC5DEA898</t>
+  </si>
+  <si>
+    <t>3AD3B074FA58DF6C970F30EEB22AF4D6B20BC07A6B624625589C8F7AC3A7FD08</t>
+  </si>
+  <si>
+    <t>2C08F12853B645A8F33135CA909903E885D1EB7B838FCC61AEDDA0C4867DBFEF</t>
+  </si>
+  <si>
+    <t>95CFF1E786D98E2571B1ABA42DB738C90047C4B606CF78725B666F7BF69D9E0B</t>
+  </si>
+  <si>
+    <t>B6E905FBFE8732F7810F344C6D9B51E1CDA806978DF225E735C9D0AD3ED07ABD</t>
   </si>
 </sst>
 </file>
@@ -395,10 +333,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,10 +350,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -439,8 +406,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -454,23 +443,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,19 +497,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,73 +529,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -602,13 +575,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,19 +683,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,139 +737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,18 +791,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,32 +826,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,175 +861,195 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1496,25 +1483,25 @@
       </c>
     </row>
     <row r="2" ht="36.75" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1534,7 +1521,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1551,36 +1538,24 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1595,7 +1570,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1612,36 +1587,21 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="2:2">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="13.2" spans="2:2">
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1656,7 +1616,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1673,52 +1633,27 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="2:2">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="13.2" spans="2:2">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="13.2" spans="2:2">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" ht="13.2" spans="2:2">
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1733,7 +1668,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1750,52 +1685,27 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="2:2">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:2">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="13.2" spans="2:2">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="13.2" spans="2:2">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" ht="13.2" spans="2:2">
+      <c r="B7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1810,7 +1720,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1826,36 +1736,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1781,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1887,36 +1797,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
+    <row r="2" ht="14" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="14" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="14" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" ht="14" spans="1:2">
       <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1842,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1948,36 +1858,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1993,7 +1903,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2009,36 +1919,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1964,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2070,36 +1980,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2025,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2131,36 +2041,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2193,10 +2103,10 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2213,7 +2123,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2229,52 +2139,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:2">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2200,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2306,52 +2216,52 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="2" ht="17" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:2">
       <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="1:2">
       <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:2">
       <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2381,13 +2291,13 @@
       </c>
     </row>
     <row r="2" ht="16.35" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>110</v>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>111</v>
+      <c r="A3" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2420,13 +2330,13 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>112</v>
+      <c r="A2" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>113</v>
+      <c r="A3" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +2355,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5535714285714" defaultRowHeight="12" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="84.0803571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2456,13 +2369,13 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>114</v>
+      <c r="A2" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>115</v>
+      <c r="A3" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2478,28 +2391,88 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5535714285714" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5535714285714" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="85.2678571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>115</v>
-      </c>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5535714285714" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="85.2678571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2538,13 +2511,13 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2552,7 +2525,7 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -2596,16 +2569,16 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2646,16 +2619,16 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2696,16 +2669,16 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2721,15 +2694,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.8839285714286" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.2232142857143" customWidth="1"/>
+    <col min="2" max="2" width="48.9642857142857" customWidth="1"/>
+    <col min="3" max="3" width="39.7232142857143" customWidth="1"/>
     <col min="4" max="4" width="14.3303571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2748,16 +2721,16 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2774,7 +2747,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2791,28 +2764,18 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
+    <row r="3" ht="13.2" spans="2:2">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="13.2" spans="2:2">
+      <c r="B4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2827,12 +2790,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6607142857143" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="81.25" customWidth="1"/>
+    <col min="1" max="1" width="69.1964285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -2844,28 +2807,20 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
